--- a/schemas/mexico_Excel/ciudades.xlsx
+++ b/schemas/mexico_Excel/ciudades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7dd1d659b9951f/Documentos/UPA/2025-2/Materias/2025-2-ISC05-DB/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7dd1d659b9951f/Documentos/UPA/2025-2/Materias/2025-2-ISC05-DB/schemas/mexico_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{4101FE8A-E84C-4C79-97CE-F0652B8F0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5422E637-F212-440C-91EF-FBB7F40A6AD4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{4101FE8A-E84C-4C79-97CE-F0652B8F0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{203022D7-DB65-406E-89F5-4197ED1680D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8A6EBA4-FCE0-46C1-A6DF-67D3A30CAEED}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>DURANGO</t>
   </si>
   <si>
-    <t>José Rosas Aispuro</t>
-  </si>
-  <si>
     <t>Gto</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>PVEM</t>
+  </si>
+  <si>
+    <t>Jose Rosas Aispuro</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -953,7 +953,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1755,7 +1755,7 @@
         <v>927784</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1775,13 +1775,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>473</v>
@@ -1796,7 +1796,7 @@
         <v>3170480</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1816,13 +1816,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
       <c r="E13">
         <v>747</v>
@@ -1837,7 +1837,7 @@
         <v>1840073</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1857,13 +1857,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14">
         <v>771</v>
@@ -1878,7 +1878,7 @@
         <v>1601462</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1898,13 +1898,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
       </c>
       <c r="E15">
         <v>33</v>
@@ -1919,13 +1919,13 @@
         <v>4249696</v>
       </c>
       <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>63</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>64</v>
       </c>
       <c r="L15" s="1">
         <v>43440</v>
@@ -1939,13 +1939,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
       </c>
       <c r="E16">
         <v>722</v>
@@ -1960,7 +1960,7 @@
         <v>8741123</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1980,13 +1980,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
       </c>
       <c r="E17">
         <v>443</v>
@@ -2001,13 +2001,13 @@
         <v>2442505</v>
       </c>
       <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>72</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>73</v>
       </c>
       <c r="L17" s="1">
         <v>42278</v>
@@ -2021,13 +2021,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
       </c>
       <c r="E18">
         <v>777</v>
@@ -2042,13 +2042,13 @@
         <v>1020673</v>
       </c>
       <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>77</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
       </c>
       <c r="L18" s="1">
         <v>43374</v>
@@ -2062,13 +2062,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
       </c>
       <c r="E19">
         <v>311</v>
@@ -2083,7 +2083,7 @@
         <v>623178</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2103,13 +2103,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
       </c>
       <c r="E20">
         <v>81</v>
@@ -2124,13 +2124,13 @@
         <v>2893492</v>
       </c>
       <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>86</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>87</v>
       </c>
       <c r="L20" s="1">
         <v>42281</v>
@@ -2144,13 +2144,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21">
         <v>951</v>
@@ -2165,7 +2165,7 @@
         <v>2157305</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2185,16 +2185,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
         <v>92</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
       </c>
       <c r="F22">
         <v>217</v>
@@ -2206,7 +2206,7 @@
         <v>3423163</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2226,16 +2226,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
         <v>95</v>
       </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         <v>1211647</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2267,16 +2267,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -2288,13 +2288,13 @@
         <v>921206</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" s="1">
         <v>42638</v>
@@ -2308,13 +2308,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25">
         <v>444</v>
@@ -2329,7 +2329,7 @@
         <v>1449804</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2349,13 +2349,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
       </c>
       <c r="E26">
         <v>667</v>
@@ -2370,7 +2370,7 @@
         <v>1532128</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2390,13 +2390,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
       </c>
       <c r="E27">
         <v>662</v>
@@ -2411,7 +2411,7 @@
         <v>1472643</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28">
         <v>17</v>
@@ -2452,7 +2452,7 @@
         <v>1228927</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2472,16 +2472,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>43</v>
@@ -2493,7 +2493,7 @@
         <v>1791595</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2513,13 +2513,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30">
         <v>246</v>
@@ -2534,7 +2534,7 @@
         <v>693083</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2554,13 +2554,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
       </c>
       <c r="E31">
         <v>228</v>
@@ -2575,7 +2575,7 @@
         <v>4190805</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2595,13 +2595,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>130</v>
       </c>
       <c r="E32">
         <v>999</v>
@@ -2616,7 +2616,7 @@
         <v>1180619</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2636,13 +2636,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33">
         <v>492</v>
@@ -2657,7 +2657,7 @@
         <v>831080</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2696,31 +2696,31 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2728,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2736,15 +2736,15 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2752,23 +2752,23 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
         <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
